--- a/biology/Zoologie/Gerrhonotus_infernalis/Gerrhonotus_infernalis.xlsx
+++ b/biology/Zoologie/Gerrhonotus_infernalis/Gerrhonotus_infernalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerrhonotus infernalis est une espèce de sauriens de la famille des Anguidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerrhonotus infernalis est une espèce de sauriens de la famille des Anguidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le nord du Mexique et au Texas aux États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le nord du Mexique et au Texas aux États-Unis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard atteint environ 60 centimètres. Il est de couleur brun-jaune, avec parfois des motifs blanc ou brun sur le dos. Le ventre est blanc ou beige. Les pattes sont plutôt fines, avec des doigts fins et bien séparés. Les écailles sont rectangulaires, assez grosses sur le dessus et le ventre et plus fines sur les côtés.
 Il est capable de se séparer de sa queue en cas d'attaque par un prédateur (autotomie), celle-ci repoussant ensuite.
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baird, 1859 "1858" : Description of new genera and species of North American lizards in the museum of the Smithsonian Institution. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 10, p. 253-256 (texte intégral).</t>
         </is>
